--- a/NRWebTests/Resources/Krokenmila_14052012.xlsx
+++ b/NRWebTests/Resources/Krokenmila_14052012.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonvidars\Documents\Visual Studio 2013\Projects\NorthernRunners\NRWebTests\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
-  <si>
-    <t>Navn</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Kristian Ulriksen</t>
   </si>
@@ -175,16 +177,16 @@
     <t>Nina Olsen</t>
   </si>
   <si>
-    <t>Tid</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>minutter</t>
+  </si>
+  <si>
+    <t>sekunder</t>
+  </si>
+  <si>
+    <t>navn</t>
   </si>
 </sst>
 </file>
@@ -228,12 +230,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -248,12 +249,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -295,7 +299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,7 +334,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,38 +543,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -581,14 +582,13 @@
       <c r="D2">
         <v>59</v>
       </c>
-      <c r="E2" s="2">
-        <f>TIME(B2,C2,D2)</f>
-        <v>2.4988425925925928E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
         <v>38</v>
@@ -596,14 +596,13 @@
       <c r="D3">
         <v>47</v>
       </c>
-      <c r="E3" s="2">
-        <f>TIME(B3,C3,D3)</f>
-        <v>2.6932870370370371E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4">
         <v>39</v>
@@ -611,14 +610,13 @@
       <c r="D4">
         <v>10</v>
       </c>
-      <c r="E4" s="2">
-        <f t="shared" ref="E4:E53" si="0">TIME(B4,C4,D4)</f>
-        <v>2.7199074074074073E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -626,14 +624,13 @@
       <c r="D5">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>2.7928240740740743E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
       </c>
       <c r="C6">
         <v>40</v>
@@ -641,14 +638,13 @@
       <c r="D6">
         <v>35</v>
       </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>2.8182870370370372E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
       </c>
       <c r="C7">
         <v>40</v>
@@ -656,14 +652,13 @@
       <c r="D7">
         <v>51</v>
       </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>2.836805555555556E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
       </c>
       <c r="C8">
         <v>41</v>
@@ -671,14 +666,13 @@
       <c r="D8">
         <v>20</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>2.8703703703703703E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
       </c>
       <c r="C9">
         <v>42</v>
@@ -686,14 +680,13 @@
       <c r="D9">
         <v>17</v>
       </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9363425925925921E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
       </c>
       <c r="C10">
         <v>42</v>
@@ -701,14 +694,13 @@
       <c r="D10">
         <v>23</v>
       </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>2.943287037037037E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
       </c>
       <c r="C11">
         <v>42</v>
@@ -716,14 +708,13 @@
       <c r="D11">
         <v>26</v>
       </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>2.946759259259259E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
       </c>
       <c r="C12">
         <v>43</v>
@@ -731,14 +722,13 @@
       <c r="D12">
         <v>13</v>
       </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0011574074074076E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
       </c>
       <c r="C13">
         <v>43</v>
@@ -746,14 +736,13 @@
       <c r="D13">
         <v>26</v>
       </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0162037037037032E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
       </c>
       <c r="C14">
         <v>43</v>
@@ -761,14 +750,13 @@
       <c r="D14">
         <v>33</v>
       </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0243055555555554E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
       </c>
       <c r="C15">
         <v>44</v>
@@ -776,14 +764,13 @@
       <c r="D15">
         <v>19</v>
       </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0775462962962966E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16">
         <v>44</v>
@@ -791,14 +778,13 @@
       <c r="D16">
         <v>29</v>
       </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0891203703703702E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
       <c r="C17">
         <v>45</v>
@@ -806,14 +792,13 @@
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1273148148148147E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
       </c>
       <c r="C18">
         <v>45</v>
@@ -821,14 +806,13 @@
       <c r="D18">
         <v>6</v>
       </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1319444444444448E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
       </c>
       <c r="C19">
         <v>45</v>
@@ -836,14 +820,13 @@
       <c r="D19">
         <v>14</v>
       </c>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1412037037037037E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
       </c>
       <c r="C20">
         <v>45</v>
@@ -851,14 +834,13 @@
       <c r="D20">
         <v>55</v>
       </c>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1886574074074074E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
       <c r="C21">
         <v>46</v>
@@ -866,14 +848,13 @@
       <c r="D21">
         <v>4</v>
       </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1990740740740743E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
       </c>
       <c r="C22">
         <v>46</v>
@@ -881,14 +862,13 @@
       <c r="D22">
         <v>5</v>
       </c>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>3.2002314814814817E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
       </c>
       <c r="C23">
         <v>46</v>
@@ -896,14 +876,13 @@
       <c r="D23">
         <v>6</v>
       </c>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>3.201388888888889E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
       </c>
       <c r="C24">
         <v>46</v>
@@ -911,14 +890,13 @@
       <c r="D24">
         <v>21</v>
       </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>3.2187500000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
       </c>
       <c r="C25">
         <v>46</v>
@@ -926,14 +904,13 @@
       <c r="D25">
         <v>25</v>
       </c>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>3.2233796296296295E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
       </c>
       <c r="C26">
         <v>46</v>
@@ -941,14 +918,13 @@
       <c r="D26">
         <v>59</v>
       </c>
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>3.2627314814814817E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
       </c>
       <c r="C27">
         <v>47</v>
@@ -956,14 +932,13 @@
       <c r="D27">
         <v>7</v>
       </c>
-      <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>3.2719907407407406E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
       </c>
       <c r="C28">
         <v>48</v>
@@ -971,14 +946,13 @@
       <c r="D28">
         <v>12</v>
       </c>
-      <c r="E28" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3472222222222223E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
       </c>
       <c r="C29">
         <v>49</v>
@@ -986,14 +960,13 @@
       <c r="D29">
         <v>20</v>
       </c>
-      <c r="E29" s="2">
-        <f t="shared" si="0"/>
-        <v>3.425925925925926E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
       </c>
       <c r="C30">
         <v>49</v>
@@ -1001,14 +974,13 @@
       <c r="D30">
         <v>40</v>
       </c>
-      <c r="E30" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4490740740740738E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
       </c>
       <c r="C31">
         <v>49</v>
@@ -1016,14 +988,13 @@
       <c r="D31">
         <v>45</v>
       </c>
-      <c r="E31" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4548611111111113E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
       </c>
       <c r="C32">
         <v>49</v>
@@ -1031,14 +1002,13 @@
       <c r="D32">
         <v>47</v>
       </c>
-      <c r="E32" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4571759259259253E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
       </c>
       <c r="C33">
         <v>50</v>
@@ -1046,14 +1016,13 @@
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="E33" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4745370370370371E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
       </c>
       <c r="C34">
         <v>50</v>
@@ -1061,14 +1030,13 @@
       <c r="D34">
         <v>7</v>
       </c>
-      <c r="E34" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4803240740740739E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
       </c>
       <c r="C35">
         <v>50</v>
@@ -1076,14 +1044,13 @@
       <c r="D35">
         <v>30</v>
       </c>
-      <c r="E35" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5069444444444445E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
       </c>
       <c r="C36">
         <v>50</v>
@@ -1091,14 +1058,13 @@
       <c r="D36">
         <v>40</v>
       </c>
-      <c r="E36" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5185185185185187E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
       </c>
       <c r="C37">
         <v>51</v>
@@ -1106,14 +1072,13 @@
       <c r="D37">
         <v>21</v>
       </c>
-      <c r="E37" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5659722222222225E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
       </c>
       <c r="C38">
         <v>51</v>
@@ -1121,14 +1086,13 @@
       <c r="D38">
         <v>34</v>
       </c>
-      <c r="E38" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5810185185185188E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
       </c>
       <c r="C39">
         <v>53</v>
@@ -1136,14 +1100,13 @@
       <c r="D39">
         <v>2</v>
       </c>
-      <c r="E39" s="2">
-        <f t="shared" si="0"/>
-        <v>3.6828703703703704E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
       </c>
       <c r="C40">
         <v>55</v>
@@ -1151,14 +1114,13 @@
       <c r="D40">
         <v>55</v>
       </c>
-      <c r="E40" s="2">
-        <f t="shared" si="0"/>
-        <v>3.8831018518518515E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
       </c>
       <c r="C41">
         <v>56</v>
@@ -1166,14 +1128,13 @@
       <c r="D41">
         <v>23</v>
       </c>
-      <c r="E41" s="2">
-        <f t="shared" si="0"/>
-        <v>3.9155092592592596E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
       </c>
       <c r="C42">
         <v>56</v>
@@ -1181,14 +1142,13 @@
       <c r="D42">
         <v>24</v>
       </c>
-      <c r="E42" s="2">
-        <f t="shared" si="0"/>
-        <v>3.9166666666666662E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
       </c>
       <c r="C43">
         <v>56</v>
@@ -1196,14 +1156,13 @@
       <c r="D43">
         <v>25</v>
       </c>
-      <c r="E43" s="2">
-        <f t="shared" si="0"/>
-        <v>3.9178240740740743E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
       </c>
       <c r="C44">
         <v>56</v>
@@ -1211,14 +1170,13 @@
       <c r="D44">
         <v>48</v>
       </c>
-      <c r="E44" s="2">
-        <f t="shared" si="0"/>
-        <v>3.9444444444444442E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
       </c>
       <c r="C45">
         <v>57</v>
@@ -1226,14 +1184,13 @@
       <c r="D45">
         <v>28</v>
       </c>
-      <c r="E45" s="2">
-        <f t="shared" si="0"/>
-        <v>3.9907407407407412E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
       </c>
       <c r="C46">
         <v>57</v>
@@ -1241,14 +1198,13 @@
       <c r="D46">
         <v>41</v>
       </c>
-      <c r="E46" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0057870370370369E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
       </c>
       <c r="C47">
         <v>58</v>
@@ -1256,14 +1212,13 @@
       <c r="D47">
         <v>11</v>
       </c>
-      <c r="E47" s="2">
-        <f t="shared" si="0"/>
-        <v>4.040509259259259E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
       </c>
       <c r="C48">
         <v>58</v>
@@ -1271,14 +1226,13 @@
       <c r="D48">
         <v>30</v>
       </c>
-      <c r="E48" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0625000000000001E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
       </c>
       <c r="C49">
         <v>58</v>
@@ -1286,14 +1240,13 @@
       <c r="D49">
         <v>45</v>
       </c>
-      <c r="E49" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0798611111111112E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
       </c>
       <c r="C50">
         <v>58</v>
@@ -1301,14 +1254,10 @@
       <c r="D50">
         <v>49</v>
       </c>
-      <c r="E50" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0844907407407406E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1319,14 +1268,10 @@
       <c r="D51">
         <v>59</v>
       </c>
-      <c r="E51" s="2">
-        <f t="shared" si="0"/>
-        <v>4.2349537037037033E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1337,14 +1282,10 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="2">
-        <f t="shared" si="0"/>
-        <v>4.2361111111111106E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1354,10 +1295,6 @@
       </c>
       <c r="D53">
         <v>13</v>
-      </c>
-      <c r="E53" s="2">
-        <f t="shared" si="0"/>
-        <v>4.3206018518518519E-2</v>
       </c>
     </row>
   </sheetData>
